--- a/target/classes/TestData/TestData.xlsx
+++ b/target/classes/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Mozilla</t>
   </si>
   <si>
-    <t>Accessories</t>
-  </si>
-  <si>
     <t>Product 2</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>iMacs</t>
-  </si>
-  <si>
     <t>Product 1</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>22, LimeSquare, City Road</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -111,12 +99,6 @@
     <t>Wazed</t>
   </si>
   <si>
-    <t>waseyrabby</t>
-  </si>
-  <si>
-    <t>718756home</t>
-  </si>
-  <si>
     <t>waseyrabby@btinternet.com</t>
   </si>
   <si>
@@ -126,15 +108,9 @@
     <t>LoginTest</t>
   </si>
   <si>
-    <t>wasey</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>akm</t>
   </si>
   <si>
@@ -147,9 +123,6 @@
     <t>astoria</t>
   </si>
   <si>
-    <t>CheckoutTest</t>
-  </si>
-  <si>
     <t>HomeTest</t>
   </si>
   <si>
@@ -159,7 +132,19 @@
     <t>firefox</t>
   </si>
   <si>
-    <t>waseyrabby@gmail.com</t>
+    <t>RegistrationTest</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>Mugs</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Ruby</t>
   </si>
 </sst>
 </file>
@@ -327,7 +312,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,6 +320,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -378,12 +366,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1048,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1062,10 +1053,12 @@
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="29.1640625" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" customHeight="1">
@@ -1114,140 +1107,136 @@
     </row>
     <row r="2" spans="1:14" ht="20" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C2" s="11">
+        <v>718756</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="11">
         <v>7777777777</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11">
+        <v>718756</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="L3" s="11">
         <v>7777777777</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="11">
         <v>718756</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="L4" s="11">
         <v>9083277874</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="11">
         <v>718756</v>
@@ -1256,37 +1245,39 @@
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="L5" s="11">
         <v>9083277874</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1879,16 +1870,22 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
-    <hyperlink ref="C3" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="M3" r:id="rId3"/>
-    <hyperlink ref="M2" r:id="rId4"/>
-    <hyperlink ref="M5" r:id="rId5"/>
-    <hyperlink ref="M4" r:id="rId6"/>
-    <hyperlink ref="B2" r:id="rId7"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="M4" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6" display="Test@123"/>
+    <hyperlink ref="C4" r:id="rId7" display="Test@123"/>
+    <hyperlink ref="C5" r:id="rId8" display="Test@123"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B2" r:id="rId10"/>
+    <hyperlink ref="B3" r:id="rId11"/>
+    <hyperlink ref="B4" r:id="rId12"/>
+    <hyperlink ref="B5" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/target/classes/TestData/TestData.xlsx
+++ b/target/classes/TestData/TestData.xlsx
@@ -8,8 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Action_Keywords">[1]Settings!$D$2:$D$8</definedName>
+    <definedName name="Page_Name">[1]Settings!$A$2:$A$8</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -63,95 +72,239 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Lakshay</t>
+  </si>
+  <si>
+    <t>35, Marconi House, Walker Road</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Product 1</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>22, LimeSquare, City Road</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Wasey</t>
+  </si>
+  <si>
+    <t>Wazed</t>
+  </si>
+  <si>
+    <t>waseyrabby@btinternet.com</t>
+  </si>
+  <si>
+    <t>waseyraby@gmail.com</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>akm</t>
+  </si>
+  <si>
+    <t>wazed</t>
+  </si>
+  <si>
+    <t>3306 35th ave</t>
+  </si>
+  <si>
+    <t>astoria</t>
+  </si>
+  <si>
+    <t>HomeTest</t>
+  </si>
+  <si>
+    <t>SmokeTest</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>RegistrationTest</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>Mugs</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>ProductSelectionTest</t>
+  </si>
+  <si>
+    <t>signInTest</t>
+  </si>
+  <si>
+    <t>BrowserTest</t>
+  </si>
+  <si>
+    <t>Product1Test</t>
+  </si>
+  <si>
+    <t>accountButtonVerification</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>TS_ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Page Object</t>
+  </si>
+  <si>
+    <t>Action Keyword</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>Open the Browser</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>Navigate to website</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>Click on My Account button on the Top Right location</t>
+  </si>
+  <si>
+    <t>Home_Page</t>
+  </si>
+  <si>
+    <t>btn_MyAccount</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>Enter the Username in the UserName field</t>
+  </si>
+  <si>
+    <t>LogIn_Page</t>
+  </si>
+  <si>
+    <t>txtbx_UserName</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>Enter the Password in the Password field</t>
+  </si>
+  <si>
+    <t>txtbx_Password</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>Click on Login button</t>
+  </si>
+  <si>
+    <t>btn_LogIn</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>Wait for Some time</t>
+  </si>
+  <si>
+    <t>waitFor</t>
+  </si>
+  <si>
+    <t>Click on LogOut button</t>
+  </si>
+  <si>
+    <t>btn_LogOut</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Close the Browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Home_Page Objects</t>
+  </si>
+  <si>
+    <t>LogIn_Page Objects</t>
+  </si>
+  <si>
+    <t>Action Keywords</t>
+  </si>
+  <si>
     <t>Mozilla</t>
   </si>
   <si>
-    <t>Product 2</t>
-  </si>
-  <si>
-    <t>Lakshay</t>
-  </si>
-  <si>
-    <t>35, Marconi House, Walker Road</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Product 1</t>
-  </si>
-  <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>22, LimeSquare, City Road</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Wasey</t>
-  </si>
-  <si>
-    <t>Wazed</t>
-  </si>
-  <si>
-    <t>waseyrabby@btinternet.com</t>
-  </si>
-  <si>
-    <t>waseyraby@gmail.com</t>
-  </si>
-  <si>
-    <t>LoginTest</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>akm</t>
-  </si>
-  <si>
-    <t>wazed</t>
-  </si>
-  <si>
-    <t>3306 35th ave</t>
-  </si>
-  <si>
-    <t>astoria</t>
-  </si>
-  <si>
-    <t>HomeTest</t>
-  </si>
-  <si>
-    <t>SmokeTest</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>RegistrationTest</t>
-  </si>
-  <si>
-    <t>Bags</t>
-  </si>
-  <si>
-    <t>Mugs</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>Ruby</t>
+    <t>testuser_3</t>
+  </si>
+  <si>
+    <t>Test@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,13 +336,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -304,15 +541,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -323,18 +564,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -344,29 +628,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="62">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -375,11 +711,73 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -395,8 +793,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -414,8 +823,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -433,8 +853,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -452,8 +883,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -471,8 +913,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -490,8 +943,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -509,8 +973,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -528,8 +1003,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -547,8 +1033,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -566,8 +1063,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -585,8 +1093,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -604,8 +1123,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -623,8 +1153,19 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -640,6 +1181,7 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -665,7 +1207,18 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -690,6 +1243,68 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Test Cases"/>
+      <sheetName val="Test Steps"/>
+      <sheetName val="Test Data"/>
+      <sheetName val="Settings"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>testuser_3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Home_Page</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>openBrowser</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>LogIn_Page</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>navigate</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>click</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>input</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>closeBrowser</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>waitFor</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,833 +1654,969 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="29.1640625" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.1640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="20" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6">
+        <v>718756</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6">
+        <v>7777777777</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="20" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6">
+        <v>718756</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6">
+        <v>7777777777</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6">
         <v>718756</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6">
+        <v>9083277874</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="20" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>718756</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6">
+        <v>9083277874</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="C6" s="6">
+        <v>718756</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="11">
-        <v>7777777777</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="6">
+        <v>9083277874</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="20" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
         <v>718756</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="L7" s="6">
+        <v>9083277874</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="20" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>718756</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="11">
-        <v>7777777777</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6">
+        <v>9083277874</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="20" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
         <v>718756</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="I9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6">
         <v>9083277874</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="M9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="20" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
         <v>718756</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="6">
+        <v>9083277874</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="20" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="20" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="20" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="20" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="20" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="20" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="20" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="20" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="20" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="20" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="20" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="20" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="20" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="20" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="20" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="20" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="20" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="20" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="20" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" ht="20" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" ht="20" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="20" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="20" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="20" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="20" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="20" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="20" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" ht="20" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="20" customHeight="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" ht="20" customHeight="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" ht="20" customHeight="1">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" ht="20" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="11">
-        <v>9083277874</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1882,10 +2633,24 @@
     <hyperlink ref="B3" r:id="rId11"/>
     <hyperlink ref="B4" r:id="rId12"/>
     <hyperlink ref="B5" r:id="rId13"/>
+    <hyperlink ref="C6" r:id="rId14" display="Test@123"/>
+    <hyperlink ref="B8" r:id="rId15"/>
+    <hyperlink ref="C8" r:id="rId16" display="Test@123"/>
+    <hyperlink ref="M6" r:id="rId17"/>
+    <hyperlink ref="B7" r:id="rId18"/>
+    <hyperlink ref="C7" r:id="rId19" display="Test@123"/>
+    <hyperlink ref="M7" r:id="rId20"/>
+    <hyperlink ref="M8" r:id="rId21"/>
+    <hyperlink ref="M9" r:id="rId22"/>
+    <hyperlink ref="C9" r:id="rId23" display="Test@123"/>
+    <hyperlink ref="B9" r:id="rId24"/>
+    <hyperlink ref="B10" r:id="rId25"/>
+    <hyperlink ref="C10" r:id="rId26" display="Test@123"/>
+    <hyperlink ref="M10" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1893,4 +2658,472 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20">
+      <c r="A1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="20">
+      <c r="A2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="20">
+      <c r="A3" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="20">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="20">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="20">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="20">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="20">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="20">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="20">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="23" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/target/classes/TestData/TestData.xlsx
+++ b/target/classes/TestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -111,9 +111,6 @@
     <t>LoginTest</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>akm</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>SmokeTest</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
     <t>RegistrationTest</t>
   </si>
   <si>
@@ -298,13 +292,16 @@
   </si>
   <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>RemoteIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,6 +386,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="7">
@@ -553,7 +556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -616,8 +619,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -701,8 +707,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -763,6 +772,9 @@
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1655,7 +1667,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1722,7 +1734,7 @@
     </row>
     <row r="2" spans="1:14" ht="20" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
@@ -1730,11 +1742,11 @@
       <c r="C2" s="6">
         <v>718756</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
+      <c r="D2" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>18</v>
@@ -1761,12 +1773,12 @@
         <v>24</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -1774,11 +1786,11 @@
       <c r="C3" s="6">
         <v>718756</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>18</v>
@@ -1805,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1">
@@ -1818,26 +1830,26 @@
       <c r="C4" s="6">
         <v>718756</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
+      <c r="D4" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>21</v>
@@ -1852,7 +1864,7 @@
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -1860,26 +1872,26 @@
       <c r="C5" s="6">
         <v>718756</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
+      <c r="D5" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>21</v>
@@ -1891,12 +1903,12 @@
         <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1904,26 +1916,26 @@
       <c r="C6" s="6">
         <v>718756</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
+      <c r="D6" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>21</v>
@@ -1938,7 +1950,7 @@
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
@@ -1946,26 +1958,26 @@
       <c r="C7" s="6">
         <v>718756</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
+      <c r="D7" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>21</v>
@@ -1980,7 +1992,7 @@
     </row>
     <row r="8" spans="1:14" ht="20" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -1988,26 +2000,26 @@
       <c r="C8" s="6">
         <v>718756</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
+      <c r="D8" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>21</v>
@@ -2022,7 +2034,7 @@
     </row>
     <row r="9" spans="1:14" ht="20" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
@@ -2030,26 +2042,26 @@
       <c r="C9" s="6">
         <v>718756</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
+      <c r="D9" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>21</v>
@@ -2064,7 +2076,7 @@
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -2072,26 +2084,26 @@
       <c r="C10" s="6">
         <v>718756</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
+      <c r="D10" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>21</v>
@@ -2615,7 +2627,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2649,6 +2661,7 @@
     <hyperlink ref="M10" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId28"/>
   </tableParts>
@@ -2678,46 +2691,46 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20">
       <c r="A1" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="20">
       <c r="A2" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="20">
       <c r="A3" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -2725,10 +2738,10 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -2737,7 +2750,7 @@
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -2746,7 +2759,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="26"/>
     </row>
@@ -2755,7 +2768,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="26"/>
     </row>
@@ -2818,25 +2831,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32" customHeight="1">
       <c r="A1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>13</v>
@@ -2847,21 +2860,21 @@
         <v>26</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" customHeight="1">
@@ -2869,19 +2882,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1">
@@ -2889,23 +2902,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1">
@@ -2913,25 +2926,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" customHeight="1">
@@ -2939,25 +2952,25 @@
         <v>26</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23" customHeight="1">
@@ -2965,23 +2978,23 @@
         <v>26</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1">
@@ -2989,19 +3002,19 @@
         <v>26</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -3009,23 +3022,23 @@
         <v>26</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23" customHeight="1">
@@ -3033,19 +3046,19 @@
         <v>26</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">

--- a/target/classes/TestData/TestData.xlsx
+++ b/target/classes/TestData/TestData.xlsx
@@ -556,7 +556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -564,6 +564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -711,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -775,6 +776,7 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1667,7 +1669,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
